--- a/biology/Zoologie/Dendropsophus_counani/Dendropsophus_counani.xlsx
+++ b/biology/Zoologie/Dendropsophus_counani/Dendropsophus_counani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus counani est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus counani est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil en Amapá, en Guyane, au Suriname et au Guyana[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil en Amapá, en Guyane, au Suriname et au Guyana,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 19,40 à 21,73 mm et les femelles de 22,1 à 24,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 19,40 à 21,73 mm et les femelles de 22,1 à 24,50 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la République de Counani.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fouquet, Orrico, Ernst, Blanc, Martinez, Vacher, Rodrigues, Ouboter, Jairam &amp; Ron, 2015 : A new Dendropsophus Fitzinger, 1843 (Anura: Hylidae) of the parviceps group from the lowlands of the Guiana Shield. Zootaxa, no 4052(1), p. 39–64.</t>
         </is>
